--- a/public/sample_uploads/fund_ratios/investor_kycs.xlsx
+++ b/public/sample_uploads/fund_ratios/investor_kycs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D3D3BA5A-E870-457A-989A-247A2B2BCAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E95B2CD9-A5FD-46B4-B7CA-2E600E728807}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{D3D3BA5A-E870-457A-989A-247A2B2BCAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D10DA720-3DE3-406F-B87F-076864049B43}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Investor</t>
   </si>
@@ -568,16 +568,13 @@
     <t>Domestic</t>
   </si>
   <si>
-    <t>HDFC</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>BOB</t>
+    <t>Foreign</t>
   </si>
   <si>
     <t>Kotak</t>
@@ -586,64 +583,16 @@
     <t>Axis</t>
   </si>
   <si>
-    <t>TSTFU1111D</t>
-  </si>
-  <si>
-    <t>TSTFU1212D</t>
-  </si>
-  <si>
-    <t>TSTF1</t>
-  </si>
-  <si>
-    <t>TSTF2</t>
-  </si>
-  <si>
-    <t>TSTF7</t>
-  </si>
-  <si>
-    <t>TSTF8</t>
-  </si>
-  <si>
-    <t>TSTF9</t>
-  </si>
-  <si>
-    <t>TSTF10</t>
-  </si>
-  <si>
-    <t>TSTF11</t>
-  </si>
-  <si>
-    <t>TSTF12</t>
-  </si>
-  <si>
-    <t>TSTF13</t>
-  </si>
-  <si>
-    <t>TSTF14</t>
-  </si>
-  <si>
-    <t>TSTFU1112D</t>
-  </si>
-  <si>
-    <t>TSTFU1113D</t>
-  </si>
-  <si>
-    <t>TSTFU1114D</t>
-  </si>
-  <si>
-    <t>TSTFU1115D</t>
-  </si>
-  <si>
-    <t>TSTFU1116D</t>
-  </si>
-  <si>
-    <t>TSTFU1117D</t>
-  </si>
-  <si>
-    <t>TSTFU1118D</t>
-  </si>
-  <si>
-    <t>TSTFU1119D</t>
+    <t>TSTFU2121D</t>
+  </si>
+  <si>
+    <t>TSTFU2222D</t>
+  </si>
+  <si>
+    <t>TSTF3</t>
+  </si>
+  <si>
+    <t>TSTF4</t>
   </si>
 </sst>
 </file>
@@ -742,7 +691,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -750,9 +699,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1016,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH11"/>
+  <dimension ref="A1:AMH3"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1113,16 +1060,16 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4">
-        <v>27478</v>
+        <v>33529</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -1131,321 +1078,62 @@
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4">
-        <v>15772</v>
+        <v>36676</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4">
-        <v>27478</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15772</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4">
-        <v>33529</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4">
-        <v>36676</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4">
-        <v>37667</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4">
-        <v>37487</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4">
-        <v>37487</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4">
-        <v>37667</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G993" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Individual,Non Individual"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:P1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:P993" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1001" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H993" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Domestic,Foreign"</formula1>
       <formula2>0</formula2>
     </dataValidation>
